--- a/jupyter/modelo_tasacion/latina_tasacion_alquiler.xlsx
+++ b/jupyter/modelo_tasacion/latina_tasacion_alquiler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,1942 +434,2353 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>precio</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>prediccion</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>dif</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>porcen</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
         <v>675</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>675.0023193359375</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.0023193359375</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.0003436053240740741</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>700</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>698.3200073242188</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>1.67999267578125</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.2399989536830357</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>750</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>965.66357421875</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>215.66357421875</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>28.75514322916667</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>750</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>762.0853881835938</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>12.08538818359375</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>1.611385091145833</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>780</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>777.30029296875</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>2.69970703125</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.3461162860576923</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>780</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>777.5383911132812</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>2.46160888671875</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.3155908829126602</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>800</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>805.1495971679688</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>5.14959716796875</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.6436996459960938</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>850</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>856.2733764648438</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>6.27337646484375</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.7380442899816176</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
         <v>850</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>851.8461303710938</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>1.84613037109375</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.2171918083639706</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>875</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>883.051513671875</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>8.051513671875</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.9201729910714286</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
         <v>890</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>890.2447509765625</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.2447509765625</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.0275001097261236</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
         <v>895</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>903.1432495117188</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>8.14324951171875</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.9098602806389665</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
         <v>895</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>900.63818359375</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>5.63818359375</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.6299646473463687</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
         <v>900</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>889.8899536132812</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>10.11004638671875</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>1.123338487413194</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
         <v>900</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>896.5711059570312</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>3.42889404296875</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.3809882269965278</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
         <v>900</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>893.69189453125</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>6.30810546875</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.7009006076388888</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
         <v>900</v>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>941.2549438476562</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>41.25494384765625</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>4.583882649739583</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
         <v>925</v>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>925.1296997070312</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.12969970703125</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.01402158994932432</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
         <v>930</v>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>930.1732177734375</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>0.1732177734375</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>0.01862556703629032</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
         <v>950</v>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="n">
         <v>988.0729370117188</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>38.07293701171875</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>4.007677580180921</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
         <v>950</v>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>947.6920776367188</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>2.30792236328125</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>0.2429391961348684</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
         <v>950</v>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="n">
         <v>948.877197265625</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>1.122802734375</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>0.1181897615131579</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
         <v>950</v>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="n">
         <v>954.611328125</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>4.611328125</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>0.4854029605263158</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
         <v>950</v>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="n">
         <v>956.6594848632812</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>6.65948486328125</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>0.7009984066611842</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
         <v>950</v>
       </c>
-      <c r="B26" t="n">
+      <c r="C26" t="n">
         <v>950.0570678710938</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>0.05706787109375</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>0.006007144325657895</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
         <v>950</v>
       </c>
-      <c r="B27" t="n">
+      <c r="C27" t="n">
         <v>949.3848266601562</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>0.61517333984375</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>0.06475508840460527</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
         <v>950</v>
       </c>
-      <c r="B28" t="n">
+      <c r="C28" t="n">
         <v>954.5350952148438</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>4.53509521484375</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>0.4773784436677632</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
         <v>950</v>
       </c>
-      <c r="B29" t="n">
+      <c r="C29" t="n">
         <v>952.6257934570312</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>2.62579345703125</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>0.2763993112664473</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
         <v>960</v>
       </c>
-      <c r="B30" t="n">
+      <c r="C30" t="n">
         <v>960.4940185546875</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>0.4940185546875</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>0.05146026611328125</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
         <v>970</v>
       </c>
-      <c r="B31" t="n">
+      <c r="C31" t="n">
         <v>968.5786743164062</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>1.42132568359375</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>0.1465284209890464</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
         <v>975</v>
       </c>
-      <c r="B32" t="n">
+      <c r="C32" t="n">
         <v>973.4577026367188</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>1.54229736328125</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>0.1581843449519231</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
         <v>980</v>
       </c>
-      <c r="B33" t="n">
+      <c r="C33" t="n">
         <v>979.0103759765625</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>0.9896240234375</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>0.1009820432079082</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
         <v>980</v>
       </c>
-      <c r="B34" t="n">
+      <c r="C34" t="n">
         <v>941.2549438476562</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>38.74505615234375</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>3.953577158402423</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
         <v>990</v>
       </c>
-      <c r="B35" t="n">
+      <c r="C35" t="n">
         <v>990.3084716796875</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>0.3084716796875</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>0.0311587555239899</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
         <v>990</v>
       </c>
-      <c r="B36" t="n">
+      <c r="C36" t="n">
         <v>998.4961547851562</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>8.49615478515625</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>0.8581974530460859</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
         <v>995</v>
       </c>
-      <c r="B37" t="n">
+      <c r="C37" t="n">
         <v>991.539794921875</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>3.460205078125</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>0.3477593043341708</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
         <v>999</v>
       </c>
-      <c r="B38" t="n">
+      <c r="C38" t="n">
         <v>965.66357421875</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>33.33642578125</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>3.336979557682683</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
         <v>1000</v>
       </c>
-      <c r="B39" t="n">
+      <c r="C39" t="n">
         <v>1004.12548828125</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>4.12548828125</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>0.412548828125</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
         <v>1000</v>
       </c>
-      <c r="B40" t="n">
+      <c r="C40" t="n">
         <v>1007.860656738281</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>7.86065673828125</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>0.786065673828125</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
         <v>1000</v>
       </c>
-      <c r="B41" t="n">
+      <c r="C41" t="n">
         <v>999.9893188476562</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>0.01068115234375</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>0.001068115234375</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
         <v>1000</v>
       </c>
-      <c r="B42" t="n">
+      <c r="C42" t="n">
         <v>1001.015258789062</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>1.0152587890625</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>0.10152587890625</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
         <v>1000</v>
       </c>
-      <c r="B43" t="n">
+      <c r="C43" t="n">
         <v>998.1026611328125</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>1.8973388671875</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>0.18973388671875</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
         <v>1000</v>
       </c>
-      <c r="B44" t="n">
+      <c r="C44" t="n">
         <v>1000.127563476562</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>0.1275634765625</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>0.01275634765625</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
         <v>1000</v>
       </c>
-      <c r="B45" t="n">
+      <c r="C45" t="n">
         <v>1002.24658203125</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>2.24658203125</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>0.224658203125</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
         <v>1000</v>
       </c>
-      <c r="B46" t="n">
+      <c r="C46" t="n">
         <v>1012.804565429688</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>12.8045654296875</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>1.28045654296875</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
         <v>1005</v>
       </c>
-      <c r="B47" t="n">
+      <c r="C47" t="n">
         <v>1009.61328125</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>4.61328125</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>0.459032960199005</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
         <v>1050</v>
       </c>
-      <c r="B48" t="n">
+      <c r="C48" t="n">
         <v>1067.836059570312</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>17.8360595703125</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>1.698672340029762</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
         <v>1050</v>
       </c>
-      <c r="B49" t="n">
+      <c r="C49" t="n">
         <v>1067.836059570312</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>17.8360595703125</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>1.698672340029762</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
         <v>1050</v>
       </c>
-      <c r="B50" t="n">
+      <c r="C50" t="n">
         <v>1039.197021484375</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>10.802978515625</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>1.02885509672619</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
         <v>1050</v>
       </c>
-      <c r="B51" t="n">
+      <c r="C51" t="n">
         <v>1050.20166015625</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>0.20166015625</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>0.01920572916666667</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
         <v>1060</v>
       </c>
-      <c r="B52" t="n">
+      <c r="C52" t="n">
         <v>1056.600952148438</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>3.3990478515625</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>0.3206648916568396</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
         <v>1100</v>
       </c>
-      <c r="B53" t="n">
+      <c r="C53" t="n">
         <v>1099.546997070312</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>0.4530029296875</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>0.04118208451704546</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
         <v>1100</v>
       </c>
-      <c r="B54" t="n">
+      <c r="C54" t="n">
         <v>1091.495849609375</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>8.504150390625</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>0.7731045809659091</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
         <v>1100</v>
       </c>
-      <c r="B55" t="n">
+      <c r="C55" t="n">
         <v>1095.3671875</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>4.6328125</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>0.4211647727272727</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
         <v>1100</v>
       </c>
-      <c r="B56" t="n">
+      <c r="C56" t="n">
         <v>1101.067260742188</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>1.0672607421875</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>0.09702370383522728</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
         <v>1100</v>
       </c>
-      <c r="B57" t="n">
+      <c r="C57" t="n">
         <v>1099.546997070312</v>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>0.4530029296875</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>0.04118208451704546</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
         <v>1100</v>
       </c>
-      <c r="B58" t="n">
+      <c r="C58" t="n">
         <v>1098.934814453125</v>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>1.065185546875</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>0.09683504971590909</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
         <v>1100</v>
       </c>
-      <c r="B59" t="n">
+      <c r="C59" t="n">
         <v>1067.836059570312</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>32.1639404296875</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>2.923994584517045</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
         <v>1150</v>
       </c>
-      <c r="B60" t="n">
+      <c r="C60" t="n">
         <v>1150.301635742188</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>0.3016357421875</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>0.02622919497282609</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
         <v>1150</v>
       </c>
-      <c r="B61" t="n">
+      <c r="C61" t="n">
         <v>1152.144653320312</v>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>2.1446533203125</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>0.1864915930706522</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
         <v>1150</v>
       </c>
-      <c r="B62" t="n">
+      <c r="C62" t="n">
         <v>1147.7890625</v>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>2.2109375</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>0.1922554347826087</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
         <v>1150</v>
       </c>
-      <c r="B63" t="n">
+      <c r="C63" t="n">
         <v>1150.833129882812</v>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>0.8331298828125</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>0.07244607676630435</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
         <v>1150</v>
       </c>
-      <c r="B64" t="n">
+      <c r="C64" t="n">
         <v>965.66357421875</v>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>184.33642578125</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>16.02925441576087</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
         <v>1150</v>
       </c>
-      <c r="B65" t="n">
+      <c r="C65" t="n">
         <v>1153.986450195312</v>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>3.9864501953125</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>0.3466478430706522</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
         <v>1175</v>
       </c>
-      <c r="B66" t="n">
+      <c r="C66" t="n">
         <v>1174.37841796875</v>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>0.62158203125</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>0.05290059840425532</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
         <v>1175</v>
       </c>
-      <c r="B67" t="n">
+      <c r="C67" t="n">
         <v>1176.049682617188</v>
       </c>
-      <c r="C67" t="n">
+      <c r="D67" t="n">
         <v>1.0496826171875</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>0.08933469082446809</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
         <v>1190</v>
       </c>
-      <c r="B68" t="n">
+      <c r="C68" t="n">
         <v>1188.652587890625</v>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>1.347412109375</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>0.1132279083508403</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
         <v>1200</v>
       </c>
-      <c r="B69" t="n">
+      <c r="C69" t="n">
         <v>1205.134399414062</v>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>5.1343994140625</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>0.4278666178385417</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
         <v>1200</v>
       </c>
-      <c r="B70" t="n">
+      <c r="C70" t="n">
         <v>1199.6611328125</v>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>0.3388671875</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>0.02823893229166667</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
         <v>1200</v>
       </c>
-      <c r="B71" t="n">
+      <c r="C71" t="n">
         <v>1199.772338867188</v>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>0.2276611328125</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>0.01897176106770833</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
         <v>1200</v>
       </c>
-      <c r="B72" t="n">
+      <c r="C72" t="n">
         <v>1199.957275390625</v>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>0.042724609375</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>0.003560384114583333</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
         <v>1200</v>
       </c>
-      <c r="B73" t="n">
+      <c r="C73" t="n">
         <v>1202.307373046875</v>
       </c>
-      <c r="C73" t="n">
+      <c r="D73" t="n">
         <v>2.307373046875</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>0.1922810872395833</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
         <v>1200</v>
       </c>
-      <c r="B74" t="n">
+      <c r="C74" t="n">
         <v>1199.6416015625</v>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>0.3583984375</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>0.02986653645833333</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
         <v>1200</v>
       </c>
-      <c r="B75" t="n">
+      <c r="C75" t="n">
         <v>1200.500122070312</v>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>0.5001220703125</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>0.04167683919270834</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
         <v>1200</v>
       </c>
-      <c r="B76" t="n">
+      <c r="C76" t="n">
         <v>1198.9111328125</v>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>1.0888671875</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>0.09073893229166667</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
         <v>1200</v>
       </c>
-      <c r="B77" t="n">
+      <c r="C77" t="n">
         <v>1330.616577148438</v>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>130.6165771484375</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>10.88471476236979</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
         <v>1200</v>
       </c>
-      <c r="B78" t="n">
+      <c r="C78" t="n">
         <v>1197.588256835938</v>
       </c>
-      <c r="C78" t="n">
+      <c r="D78" t="n">
         <v>2.4117431640625</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>0.2009785970052083</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
         <v>1200</v>
       </c>
-      <c r="B79" t="n">
+      <c r="C79" t="n">
         <v>1197.443481445312</v>
       </c>
-      <c r="C79" t="n">
+      <c r="D79" t="n">
         <v>2.5565185546875</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>0.213043212890625</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
         <v>1200</v>
       </c>
-      <c r="B80" t="n">
+      <c r="C80" t="n">
         <v>1205.340087890625</v>
       </c>
-      <c r="C80" t="n">
+      <c r="D80" t="n">
         <v>5.340087890625</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>0.44500732421875</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
         <v>1200</v>
       </c>
-      <c r="B81" t="n">
+      <c r="C81" t="n">
         <v>1203.206909179688</v>
       </c>
-      <c r="C81" t="n">
+      <c r="D81" t="n">
         <v>3.2069091796875</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>0.267242431640625</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
         <v>1200</v>
       </c>
-      <c r="B82" t="n">
+      <c r="C82" t="n">
         <v>1211.323852539062</v>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>11.3238525390625</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>0.9436543782552084</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
         <v>1200</v>
       </c>
-      <c r="B83" t="n">
+      <c r="C83" t="n">
         <v>1204.021362304688</v>
       </c>
-      <c r="C83" t="n">
+      <c r="D83" t="n">
         <v>4.0213623046875</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>0.335113525390625</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
         <v>1200</v>
       </c>
-      <c r="B84" t="n">
+      <c r="C84" t="n">
         <v>1197.443481445312</v>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>2.5565185546875</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>0.213043212890625</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
         <v>1250</v>
       </c>
-      <c r="B85" t="n">
+      <c r="C85" t="n">
         <v>1251.117919921875</v>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>1.117919921875</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>0.08943359375</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
         <v>1250</v>
       </c>
-      <c r="B86" t="n">
+      <c r="C86" t="n">
         <v>1252.662719726562</v>
       </c>
-      <c r="C86" t="n">
+      <c r="D86" t="n">
         <v>2.6627197265625</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>0.213017578125</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
         <v>1250</v>
       </c>
-      <c r="B87" t="n">
+      <c r="C87" t="n">
         <v>1253.420532226562</v>
       </c>
-      <c r="C87" t="n">
+      <c r="D87" t="n">
         <v>3.4205322265625</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>0.273642578125</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
         <v>1250</v>
       </c>
-      <c r="B88" t="n">
+      <c r="C88" t="n">
         <v>1245.04150390625</v>
       </c>
-      <c r="C88" t="n">
+      <c r="D88" t="n">
         <v>4.95849609375</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>0.3966796875</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
         <v>1250</v>
       </c>
-      <c r="B89" t="n">
+      <c r="C89" t="n">
         <v>1228.094360351562</v>
       </c>
-      <c r="C89" t="n">
+      <c r="D89" t="n">
         <v>21.9056396484375</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>1.752451171875</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
         <v>1250</v>
       </c>
-      <c r="B90" t="n">
+      <c r="C90" t="n">
         <v>1251.095947265625</v>
       </c>
-      <c r="C90" t="n">
+      <c r="D90" t="n">
         <v>1.095947265625</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>0.08767578125</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
         <v>1275</v>
       </c>
-      <c r="B91" t="n">
+      <c r="C91" t="n">
         <v>1288.413452148438</v>
       </c>
-      <c r="C91" t="n">
+      <c r="D91" t="n">
         <v>13.4134521484375</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>1.052035462622549</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
         <v>1290</v>
       </c>
-      <c r="B92" t="n">
+      <c r="C92" t="n">
         <v>1289.03955078125</v>
       </c>
-      <c r="C92" t="n">
+      <c r="D92" t="n">
         <v>0.96044921875</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>0.07445342781007752</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
         <v>1300</v>
       </c>
-      <c r="B93" t="n">
+      <c r="C93" t="n">
         <v>1299.233764648438</v>
       </c>
-      <c r="C93" t="n">
+      <c r="D93" t="n">
         <v>0.7662353515625</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>0.05894118088942308</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
         <v>1300</v>
       </c>
-      <c r="B94" t="n">
+      <c r="C94" t="n">
         <v>1298.608520507812</v>
       </c>
-      <c r="C94" t="n">
+      <c r="D94" t="n">
         <v>1.3914794921875</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>0.1070368840144231</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
         <v>1300</v>
       </c>
-      <c r="B95" t="n">
+      <c r="C95" t="n">
         <v>1299.259521484375</v>
       </c>
-      <c r="C95" t="n">
+      <c r="D95" t="n">
         <v>0.740478515625</v>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
         <v>0.0569598858173077</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
         <v>1300</v>
       </c>
-      <c r="B96" t="n">
+      <c r="C96" t="n">
         <v>1298.1318359375</v>
       </c>
-      <c r="C96" t="n">
+      <c r="D96" t="n">
         <v>1.8681640625</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>0.1437049278846154</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
         <v>1300</v>
       </c>
-      <c r="B97" t="n">
+      <c r="C97" t="n">
         <v>1299.382568359375</v>
       </c>
-      <c r="C97" t="n">
+      <c r="D97" t="n">
         <v>0.617431640625</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>0.04749474158653846</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
         <v>1300</v>
       </c>
-      <c r="B98" t="n">
+      <c r="C98" t="n">
         <v>1300.085083007812</v>
       </c>
-      <c r="C98" t="n">
+      <c r="D98" t="n">
         <v>0.0850830078125</v>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>0.006544846754807692</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
         <v>1300</v>
       </c>
-      <c r="B99" t="n">
+      <c r="C99" t="n">
         <v>1299.734008789062</v>
       </c>
-      <c r="C99" t="n">
+      <c r="D99" t="n">
         <v>0.2659912109375</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>0.02046086237980769</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
         <v>1300</v>
       </c>
-      <c r="B100" t="n">
+      <c r="C100" t="n">
         <v>1297.841430664062</v>
       </c>
-      <c r="C100" t="n">
+      <c r="D100" t="n">
         <v>2.1585693359375</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>0.1660437950721154</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
         <v>1300</v>
       </c>
-      <c r="B101" t="n">
+      <c r="C101" t="n">
         <v>1299.259521484375</v>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>0.740478515625</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>0.0569598858173077</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
         <v>1300</v>
       </c>
-      <c r="B102" t="n">
+      <c r="C102" t="n">
         <v>1301.406860351562</v>
       </c>
-      <c r="C102" t="n">
+      <c r="D102" t="n">
         <v>1.4068603515625</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>0.1082200270432692</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
         <v>1300</v>
       </c>
-      <c r="B103" t="n">
+      <c r="C103" t="n">
         <v>1295.795288085938</v>
       </c>
-      <c r="C103" t="n">
+      <c r="D103" t="n">
         <v>4.2047119140625</v>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>0.3234393780048077</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
         <v>1350</v>
       </c>
-      <c r="B104" t="n">
+      <c r="C104" t="n">
         <v>1349.03271484375</v>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>0.96728515625</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>0.07165075231481481</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
         <v>1350</v>
       </c>
-      <c r="B105" t="n">
+      <c r="C105" t="n">
         <v>1349.03271484375</v>
       </c>
-      <c r="C105" t="n">
+      <c r="D105" t="n">
         <v>0.96728515625</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>0.07165075231481481</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
         <v>1350</v>
       </c>
-      <c r="B106" t="n">
+      <c r="C106" t="n">
         <v>1353.109985351562</v>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
         <v>3.1099853515625</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>0.2303692853009259</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
         <v>1350</v>
       </c>
-      <c r="B107" t="n">
+      <c r="C107" t="n">
         <v>1348.0927734375</v>
       </c>
-      <c r="C107" t="n">
+      <c r="D107" t="n">
         <v>1.9072265625</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>0.1412760416666667</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
         <v>1350</v>
       </c>
-      <c r="B108" t="n">
+      <c r="C108" t="n">
         <v>1347.004150390625</v>
       </c>
-      <c r="C108" t="n">
+      <c r="D108" t="n">
         <v>2.995849609375</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>0.2219147858796296</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
         <v>1350</v>
       </c>
-      <c r="B109" t="n">
+      <c r="C109" t="n">
         <v>1346.273681640625</v>
       </c>
-      <c r="C109" t="n">
+      <c r="D109" t="n">
         <v>3.726318359375</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>0.2760235821759259</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
         <v>1399</v>
       </c>
-      <c r="B110" t="n">
+      <c r="C110" t="n">
         <v>1398.556518554688</v>
       </c>
-      <c r="C110" t="n">
+      <c r="D110" t="n">
         <v>0.4434814453125</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>0.03169988887151537</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
         <v>1400</v>
       </c>
-      <c r="B111" t="n">
+      <c r="C111" t="n">
         <v>1386.501708984375</v>
       </c>
-      <c r="C111" t="n">
+      <c r="D111" t="n">
         <v>13.498291015625</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>0.9641636439732143</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
         <v>1400</v>
       </c>
-      <c r="B112" t="n">
+      <c r="C112" t="n">
         <v>1395.291381835938</v>
       </c>
-      <c r="C112" t="n">
+      <c r="D112" t="n">
         <v>4.7086181640625</v>
       </c>
-      <c r="D112" t="n">
+      <c r="E112" t="n">
         <v>0.3363298688616072</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
         <v>1400</v>
       </c>
-      <c r="B113" t="n">
+      <c r="C113" t="n">
         <v>1395.291381835938</v>
       </c>
-      <c r="C113" t="n">
+      <c r="D113" t="n">
         <v>4.7086181640625</v>
       </c>
-      <c r="D113" t="n">
+      <c r="E113" t="n">
         <v>0.3363298688616072</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
         <v>1400</v>
       </c>
-      <c r="B114" t="n">
+      <c r="C114" t="n">
         <v>1399.088745117188</v>
       </c>
-      <c r="C114" t="n">
+      <c r="D114" t="n">
         <v>0.9112548828125</v>
       </c>
-      <c r="D114" t="n">
+      <c r="E114" t="n">
         <v>0.06508963448660714</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
         <v>1400</v>
       </c>
-      <c r="B115" t="n">
+      <c r="C115" t="n">
         <v>1398.703002929688</v>
       </c>
-      <c r="C115" t="n">
+      <c r="D115" t="n">
         <v>1.2969970703125</v>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>0.09264264787946429</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
         <v>1400</v>
       </c>
-      <c r="B116" t="n">
+      <c r="C116" t="n">
         <v>1405.020141601562</v>
       </c>
-      <c r="C116" t="n">
+      <c r="D116" t="n">
         <v>5.0201416015625</v>
       </c>
-      <c r="D116" t="n">
+      <c r="E116" t="n">
         <v>0.35858154296875</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
         <v>1400</v>
       </c>
-      <c r="B117" t="n">
+      <c r="C117" t="n">
         <v>1330.616577148438</v>
       </c>
-      <c r="C117" t="n">
+      <c r="D117" t="n">
         <v>69.3834228515625</v>
       </c>
-      <c r="D117" t="n">
+      <c r="E117" t="n">
         <v>4.955958775111607</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
         <v>1400</v>
       </c>
-      <c r="B118" t="n">
+      <c r="C118" t="n">
         <v>1390.563354492188</v>
       </c>
-      <c r="C118" t="n">
+      <c r="D118" t="n">
         <v>9.4366455078125</v>
       </c>
-      <c r="D118" t="n">
+      <c r="E118" t="n">
         <v>0.6740461077008929</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
         <v>1400</v>
       </c>
-      <c r="B119" t="n">
+      <c r="C119" t="n">
         <v>1400.28076171875</v>
       </c>
-      <c r="C119" t="n">
+      <c r="D119" t="n">
         <v>0.28076171875</v>
       </c>
-      <c r="D119" t="n">
+      <c r="E119" t="n">
         <v>0.02005440848214286</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
         <v>1400</v>
       </c>
-      <c r="B120" t="n">
+      <c r="C120" t="n">
         <v>1398.703002929688</v>
       </c>
-      <c r="C120" t="n">
+      <c r="D120" t="n">
         <v>1.2969970703125</v>
       </c>
-      <c r="D120" t="n">
+      <c r="E120" t="n">
         <v>0.09264264787946429</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
         <v>1400</v>
       </c>
-      <c r="B121" t="n">
+      <c r="C121" t="n">
         <v>1379.746337890625</v>
       </c>
-      <c r="C121" t="n">
+      <c r="D121" t="n">
         <v>20.253662109375</v>
       </c>
-      <c r="D121" t="n">
+      <c r="E121" t="n">
         <v>1.446690150669643</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
         <v>1400</v>
       </c>
-      <c r="B122" t="n">
+      <c r="C122" t="n">
         <v>1330.616577148438</v>
       </c>
-      <c r="C122" t="n">
+      <c r="D122" t="n">
         <v>69.3834228515625</v>
       </c>
-      <c r="D122" t="n">
+      <c r="E122" t="n">
         <v>4.955958775111607</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
         <v>1430</v>
       </c>
-      <c r="B123" t="n">
+      <c r="C123" t="n">
         <v>1426.987548828125</v>
       </c>
-      <c r="C123" t="n">
+      <c r="D123" t="n">
         <v>3.012451171875</v>
       </c>
-      <c r="D123" t="n">
+      <c r="E123" t="n">
         <v>0.2106609211101399</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
         <v>1450</v>
       </c>
-      <c r="B124" t="n">
+      <c r="C124" t="n">
         <v>1435.358520507812</v>
       </c>
-      <c r="C124" t="n">
+      <c r="D124" t="n">
         <v>14.6414794921875</v>
       </c>
-      <c r="D124" t="n">
+      <c r="E124" t="n">
         <v>1.009757206357759</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
         <v>1450</v>
       </c>
-      <c r="B125" t="n">
+      <c r="C125" t="n">
         <v>1453.51953125</v>
       </c>
-      <c r="C125" t="n">
+      <c r="D125" t="n">
         <v>3.51953125</v>
       </c>
-      <c r="D125" t="n">
+      <c r="E125" t="n">
         <v>0.2427262931034483</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
         <v>1490</v>
       </c>
-      <c r="B126" t="n">
+      <c r="C126" t="n">
         <v>1489.389770507812</v>
       </c>
-      <c r="C126" t="n">
+      <c r="D126" t="n">
         <v>0.6102294921875</v>
       </c>
-      <c r="D126" t="n">
+      <c r="E126" t="n">
         <v>0.04095499947567114</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
         <v>1500</v>
       </c>
-      <c r="B127" t="n">
+      <c r="C127" t="n">
         <v>1492.743530273438</v>
       </c>
-      <c r="C127" t="n">
+      <c r="D127" t="n">
         <v>7.2564697265625</v>
       </c>
-      <c r="D127" t="n">
+      <c r="E127" t="n">
         <v>0.4837646484375</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
         <v>1500</v>
       </c>
-      <c r="B128" t="n">
+      <c r="C128" t="n">
         <v>1500.051147460938</v>
       </c>
-      <c r="C128" t="n">
+      <c r="D128" t="n">
         <v>0.0511474609375</v>
       </c>
-      <c r="D128" t="n">
+      <c r="E128" t="n">
         <v>0.003409830729166667</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
         <v>1500</v>
       </c>
-      <c r="B129" t="n">
+      <c r="C129" t="n">
         <v>1501.718139648438</v>
       </c>
-      <c r="C129" t="n">
+      <c r="D129" t="n">
         <v>1.7181396484375</v>
       </c>
-      <c r="D129" t="n">
+      <c r="E129" t="n">
         <v>0.1145426432291667</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
         <v>1537</v>
       </c>
-      <c r="B130" t="n">
+      <c r="C130" t="n">
         <v>1536.284301757812</v>
       </c>
-      <c r="C130" t="n">
+      <c r="D130" t="n">
         <v>0.7156982421875</v>
       </c>
-      <c r="D130" t="n">
+      <c r="E130" t="n">
         <v>0.04656462213321405</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
         <v>1550</v>
       </c>
-      <c r="B131" t="n">
+      <c r="C131" t="n">
         <v>1550.066772460938</v>
       </c>
-      <c r="C131" t="n">
+      <c r="D131" t="n">
         <v>0.0667724609375</v>
       </c>
-      <c r="D131" t="n">
+      <c r="E131" t="n">
         <v>0.004307900705645161</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
         <v>1600</v>
       </c>
-      <c r="B132" t="n">
+      <c r="C132" t="n">
         <v>1599.791015625</v>
       </c>
-      <c r="C132" t="n">
+      <c r="D132" t="n">
         <v>0.208984375</v>
       </c>
-      <c r="D132" t="n">
+      <c r="E132" t="n">
         <v>0.0130615234375</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
         <v>1600</v>
       </c>
-      <c r="B133" t="n">
+      <c r="C133" t="n">
         <v>1600.281127929688</v>
       </c>
-      <c r="C133" t="n">
+      <c r="D133" t="n">
         <v>0.2811279296875</v>
       </c>
-      <c r="D133" t="n">
+      <c r="E133" t="n">
         <v>0.01757049560546875</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
         <v>1600</v>
       </c>
-      <c r="B134" t="n">
+      <c r="C134" t="n">
         <v>1603.266723632812</v>
       </c>
-      <c r="C134" t="n">
+      <c r="D134" t="n">
         <v>3.2667236328125</v>
       </c>
-      <c r="D134" t="n">
+      <c r="E134" t="n">
         <v>0.2041702270507812</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
         <v>1800</v>
       </c>
-      <c r="B135" t="n">
+      <c r="C135" t="n">
         <v>1800.317749023438</v>
       </c>
-      <c r="C135" t="n">
+      <c r="D135" t="n">
         <v>0.3177490234375</v>
       </c>
-      <c r="D135" t="n">
+      <c r="E135" t="n">
         <v>0.01765272352430556</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
         <v>1800</v>
       </c>
-      <c r="B136" t="n">
+      <c r="C136" t="n">
         <v>1798.280395507812</v>
       </c>
-      <c r="C136" t="n">
+      <c r="D136" t="n">
         <v>1.7196044921875</v>
       </c>
-      <c r="D136" t="n">
+      <c r="E136" t="n">
         <v>0.09553358289930555</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
         <v>1900</v>
       </c>
-      <c r="B137" t="n">
+      <c r="C137" t="n">
         <v>1896.161743164062</v>
       </c>
-      <c r="C137" t="n">
+      <c r="D137" t="n">
         <v>3.8382568359375</v>
       </c>
-      <c r="D137" t="n">
+      <c r="E137" t="n">
         <v>0.202013517680921</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
         <v>2500</v>
       </c>
-      <c r="B138" t="n">
+      <c r="C138" t="n">
         <v>2498.9541015625</v>
       </c>
-      <c r="C138" t="n">
+      <c r="D138" t="n">
         <v>1.0458984375</v>
       </c>
-      <c r="D138" t="n">
+      <c r="E138" t="n">
         <v>0.0418359375</v>
       </c>
     </row>
